--- a/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema3a-Plxna2.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD0/LR-pairs_lrc2p/Sema3a-Plxna2.xlsx
@@ -528,22 +528,22 @@
         <v>20</v>
       </c>
       <c r="E2">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F2">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G2">
-        <v>0.5674196666666667</v>
+        <v>0.4115256666666666</v>
       </c>
       <c r="H2">
-        <v>1.702259</v>
+        <v>1.234577</v>
       </c>
       <c r="I2">
-        <v>0.07864125446886469</v>
+        <v>0.2245998342667577</v>
       </c>
       <c r="J2">
-        <v>0.07864125446886468</v>
+        <v>0.2245998342667577</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -552,28 +552,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>29.420614</v>
+        <v>30.61919899999999</v>
       </c>
       <c r="N2">
-        <v>88.261842</v>
+        <v>91.85759699999998</v>
       </c>
       <c r="O2">
-        <v>0.5865186809777163</v>
+        <v>0.6951390881735714</v>
       </c>
       <c r="P2">
-        <v>0.5865186809777162</v>
+        <v>0.6951390881735714</v>
       </c>
       <c r="Q2">
-        <v>16.69383498900867</v>
+        <v>12.60058628127433</v>
       </c>
       <c r="R2">
-        <v>150.244514901078</v>
+        <v>113.405276531469</v>
       </c>
       <c r="S2">
-        <v>0.04612456484151146</v>
+        <v>0.1561281239961292</v>
       </c>
       <c r="T2">
-        <v>0.04612456484151144</v>
+        <v>0.1561281239961292</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -590,22 +590,22 @@
         <v>21</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G3">
-        <v>0.5674196666666667</v>
+        <v>0.4115256666666666</v>
       </c>
       <c r="H3">
-        <v>1.702259</v>
+        <v>1.234577</v>
       </c>
       <c r="I3">
-        <v>0.07864125446886469</v>
+        <v>0.2245998342667577</v>
       </c>
       <c r="J3">
-        <v>0.07864125446886468</v>
+        <v>0.2245998342667577</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -620,22 +620,22 @@
         <v>12.240936</v>
       </c>
       <c r="O3">
-        <v>0.08134361887272466</v>
+        <v>0.09263417906992544</v>
       </c>
       <c r="P3">
-        <v>0.08134361887272466</v>
+        <v>0.09263417906992545</v>
       </c>
       <c r="Q3">
-        <v>2.315249274936</v>
+        <v>1.679153116008</v>
       </c>
       <c r="R3">
-        <v>20.837243474424</v>
+        <v>15.112378044072</v>
       </c>
       <c r="S3">
-        <v>0.006396964231188284</v>
+        <v>0.02080562126654241</v>
       </c>
       <c r="T3">
-        <v>0.006396964231188284</v>
+        <v>0.02080562126654241</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -652,22 +652,22 @@
         <v>22</v>
       </c>
       <c r="E4">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F4">
-        <v>0.6666666666666666</v>
+        <v>1</v>
       </c>
       <c r="G4">
-        <v>0.5674196666666667</v>
+        <v>0.4115256666666666</v>
       </c>
       <c r="H4">
-        <v>1.702259</v>
+        <v>1.234577</v>
       </c>
       <c r="I4">
-        <v>0.07864125446886469</v>
+        <v>0.2245998342667577</v>
       </c>
       <c r="J4">
-        <v>0.07864125446886468</v>
+        <v>0.2245998342667577</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -676,28 +676,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>16.660501</v>
+        <v>9.348075333333332</v>
       </c>
       <c r="N4">
-        <v>49.98150299999999</v>
+        <v>28.04422599999999</v>
       </c>
       <c r="O4">
-        <v>0.3321377001495591</v>
+        <v>0.2122267327565031</v>
       </c>
       <c r="P4">
-        <v>0.3321377001495591</v>
+        <v>0.2122267327565031</v>
       </c>
       <c r="Q4">
-        <v>9.453495923919665</v>
+        <v>3.846972933600221</v>
       </c>
       <c r="R4">
-        <v>85.08146331527698</v>
+        <v>34.62275640240199</v>
       </c>
       <c r="S4">
-        <v>0.02611972539616496</v>
+        <v>0.04766608900408609</v>
       </c>
       <c r="T4">
-        <v>0.02611972539616495</v>
+        <v>0.04766608900408609</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,10 +726,10 @@
         <v>2.168329</v>
       </c>
       <c r="I5">
-        <v>0.1001728366019618</v>
+        <v>0.3944722233087159</v>
       </c>
       <c r="J5">
-        <v>0.1001728366019618</v>
+        <v>0.3944722233087159</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -738,28 +738,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>29.420614</v>
+        <v>30.61919899999999</v>
       </c>
       <c r="N5">
-        <v>88.261842</v>
+        <v>91.85759699999998</v>
       </c>
       <c r="O5">
-        <v>0.5865186809777163</v>
+        <v>0.6951390881735714</v>
       </c>
       <c r="P5">
-        <v>0.5865186809777162</v>
+        <v>0.6951390881735714</v>
       </c>
       <c r="Q5">
-        <v>21.26452351133533</v>
+        <v>22.13083238282366</v>
       </c>
       <c r="R5">
-        <v>191.380711602018</v>
+        <v>199.177491445413</v>
       </c>
       <c r="S5">
-        <v>0.05875323999357894</v>
+        <v>0.2742130616206222</v>
       </c>
       <c r="T5">
-        <v>0.05875323999357893</v>
+        <v>0.2742130616206222</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,10 +788,10 @@
         <v>2.168329</v>
       </c>
       <c r="I6">
-        <v>0.1001728366019618</v>
+        <v>0.3944722233087159</v>
       </c>
       <c r="J6">
-        <v>0.1001728366019618</v>
+        <v>0.3944722233087159</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,10 +806,10 @@
         <v>12.240936</v>
       </c>
       <c r="O6">
-        <v>0.08134361887272466</v>
+        <v>0.09263417906992544</v>
       </c>
       <c r="P6">
-        <v>0.08134361887272466</v>
+        <v>0.09263417906992545</v>
       </c>
       <c r="Q6">
         <v>2.949152946216</v>
@@ -818,10 +818,10 @@
         <v>26.542376515944</v>
       </c>
       <c r="S6">
-        <v>0.008148421041949704</v>
+        <v>0.0365416105720912</v>
       </c>
       <c r="T6">
-        <v>0.008148421041949704</v>
+        <v>0.03654161057209121</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -850,10 +850,10 @@
         <v>2.168329</v>
       </c>
       <c r="I7">
-        <v>0.1001728366019618</v>
+        <v>0.3944722233087159</v>
       </c>
       <c r="J7">
-        <v>0.1001728366019618</v>
+        <v>0.3944722233087159</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -862,28 +862,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>16.660501</v>
+        <v>9.348075333333332</v>
       </c>
       <c r="N7">
-        <v>49.98150299999999</v>
+        <v>28.04422599999999</v>
       </c>
       <c r="O7">
-        <v>0.3321377001495591</v>
+        <v>0.2122267327565031</v>
       </c>
       <c r="P7">
-        <v>0.3321377001495591</v>
+        <v>0.2122267327565031</v>
       </c>
       <c r="Q7">
-        <v>12.04181582427633</v>
+        <v>6.756567613150444</v>
       </c>
       <c r="R7">
-        <v>108.376342418487</v>
+        <v>60.80910851835399</v>
       </c>
       <c r="S7">
-        <v>0.03327117556643317</v>
+        <v>0.08371755111600247</v>
       </c>
       <c r="T7">
-        <v>0.03327117556643316</v>
+        <v>0.08371755111600247</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -906,16 +906,16 @@
         <v>1</v>
       </c>
       <c r="G8">
-        <v>5.925096666666668</v>
+        <v>0.6979596666666668</v>
       </c>
       <c r="H8">
-        <v>17.77529</v>
+        <v>2.093879</v>
       </c>
       <c r="I8">
-        <v>0.8211859089291735</v>
+        <v>0.3809279424245264</v>
       </c>
       <c r="J8">
-        <v>0.8211859089291734</v>
+        <v>0.3809279424245264</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -924,28 +924,28 @@
         <v>1</v>
       </c>
       <c r="M8">
-        <v>29.420614</v>
+        <v>30.61919899999999</v>
       </c>
       <c r="N8">
-        <v>88.261842</v>
+        <v>91.85759699999998</v>
       </c>
       <c r="O8">
-        <v>0.5865186809777163</v>
+        <v>0.6951390881735714</v>
       </c>
       <c r="P8">
-        <v>0.5865186809777162</v>
+        <v>0.6951390881735714</v>
       </c>
       <c r="Q8">
-        <v>174.3199819426867</v>
+        <v>21.37096592764033</v>
       </c>
       <c r="R8">
-        <v>1568.87983748418</v>
+        <v>192.338693348763</v>
       </c>
       <c r="S8">
-        <v>0.4816408761426259</v>
+        <v>0.26479790255682</v>
       </c>
       <c r="T8">
-        <v>0.4816408761426258</v>
+        <v>0.26479790255682</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -968,16 +968,16 @@
         <v>1</v>
       </c>
       <c r="G9">
-        <v>5.925096666666668</v>
+        <v>0.6979596666666668</v>
       </c>
       <c r="H9">
-        <v>17.77529</v>
+        <v>2.093879</v>
       </c>
       <c r="I9">
-        <v>0.8211859089291735</v>
+        <v>0.3809279424245264</v>
       </c>
       <c r="J9">
-        <v>0.8211859089291734</v>
+        <v>0.3809279424245264</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,22 +992,22 @@
         <v>12.240936</v>
       </c>
       <c r="O9">
-        <v>0.08134361887272466</v>
+        <v>0.09263417906992544</v>
       </c>
       <c r="P9">
-        <v>0.08134361887272466</v>
+        <v>0.09263417906992545</v>
       </c>
       <c r="Q9">
-        <v>24.17624303016001</v>
+        <v>2.847893203416</v>
       </c>
       <c r="R9">
-        <v>217.5861872714401</v>
+        <v>25.63103883074401</v>
       </c>
       <c r="S9">
-        <v>0.06679823359958667</v>
+        <v>0.03528694723129183</v>
       </c>
       <c r="T9">
-        <v>0.06679823359958667</v>
+        <v>0.03528694723129183</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1030,16 +1030,16 @@
         <v>1</v>
       </c>
       <c r="G10">
-        <v>5.925096666666668</v>
+        <v>0.6979596666666668</v>
       </c>
       <c r="H10">
-        <v>17.77529</v>
+        <v>2.093879</v>
       </c>
       <c r="I10">
-        <v>0.8211859089291735</v>
+        <v>0.3809279424245264</v>
       </c>
       <c r="J10">
-        <v>0.8211859089291734</v>
+        <v>0.3809279424245264</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1048,28 +1048,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>16.660501</v>
+        <v>9.348075333333332</v>
       </c>
       <c r="N10">
-        <v>49.98150299999999</v>
+        <v>28.04422599999999</v>
       </c>
       <c r="O10">
-        <v>0.3321377001495591</v>
+        <v>0.2122267327565031</v>
       </c>
       <c r="P10">
-        <v>0.3321377001495591</v>
+        <v>0.2122267327565031</v>
       </c>
       <c r="Q10">
-        <v>98.71507894009666</v>
+        <v>6.524579543628223</v>
       </c>
       <c r="R10">
-        <v>888.4357104608699</v>
+        <v>58.72121589265399</v>
       </c>
       <c r="S10">
-        <v>0.272746799186961</v>
+        <v>0.08084309263641458</v>
       </c>
       <c r="T10">
-        <v>0.2727467991869609</v>
+        <v>0.08084309263641458</v>
       </c>
     </row>
   </sheetData>
